--- a/Alpenglow_SMTGarden_PCB/SMT Garden BOM Instructions.xlsx
+++ b/Alpenglow_SMTGarden_PCB/SMT Garden BOM Instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Box\Products, Released\Instruction BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Documents\Kicad\Alpenglow_SMT_Soldering_PCB\Alpenglow_SMTGarden_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57EC8E1-C3ED-4700-B4EB-214293ACC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B1406-65A8-4FCF-ACD2-22C1092752CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31785" yWindow="1350" windowWidth="21885" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -764,13 +764,13 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
@@ -786,11 +786,11 @@
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -812,11 +812,11 @@
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
         <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -838,11 +838,11 @@
       <c r="B3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>82</v>
@@ -864,11 +864,11 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
         <v>8</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>104</v>
@@ -890,11 +890,11 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
         <v>8</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -916,11 +916,11 @@
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
         <v>8</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>84</v>
@@ -942,11 +942,11 @@
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
         <v>4</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
@@ -968,11 +968,11 @@
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -994,11 +994,11 @@
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>4</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1020,11 +1020,11 @@
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
         <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -1046,11 +1046,11 @@
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
         <v>4</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -1072,11 +1072,11 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
         <v>14</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>78</v>
@@ -1098,11 +1098,11 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
         <v>8</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>102</v>
@@ -1124,10 +1124,10 @@
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" t="s">
@@ -1147,11 +1147,11 @@
       <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
         <v>20</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>99</v>
@@ -1173,11 +1173,11 @@
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>66</v>
@@ -1199,11 +1199,11 @@
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
@@ -1225,11 +1225,11 @@
       <c r="B18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
         <v>2</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>65</v>
@@ -1251,11 +1251,11 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
         <v>8</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>75</v>
@@ -1277,11 +1277,11 @@
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
         <v>8</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -1303,11 +1303,11 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
         <v>8</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
@@ -1329,10 +1329,10 @@
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
       <c r="E22" t="s">
@@ -1355,10 +1355,10 @@
       <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" t="s">
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="C25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
@@ -1399,7 +1399,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -1411,7 +1411,7 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D27">
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
